--- a/007-ICM42688「RareCheese」/PickAndPlace_ICM42688.xlsx
+++ b/007-ICM42688「RareCheese」/PickAndPlace_ICM42688.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30592CA-91F2-4534-BF99-FF35341CB7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B76A489-5074-49A7-96E1-9A101B83C11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1788" yWindow="3624" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PickAndPlace_ICM42688_2023-12-0" sheetId="1" r:id="rId1"/>
@@ -386,9 +386,6 @@
     <t>U2</t>
   </si>
   <si>
-    <t>M3406-ADJ</t>
-  </si>
-  <si>
     <t>SOT-23-5_L3.0-W1.7-P0.95-LS2.8-BR</t>
   </si>
   <si>
@@ -588,6 +585,10 @@
   </si>
   <si>
     <t>32.768kHz</t>
+  </si>
+  <si>
+    <t>MT3406</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -973,11 +974,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="14" width="20" customWidth="1"/>
   </cols>
@@ -2044,28 +2045,28 @@
         <v>122</v>
       </c>
       <c r="B26" t="s">
+        <v>190</v>
+      </c>
+      <c r="C26" t="s">
         <v>123</v>
-      </c>
-      <c r="C26" t="s">
-        <v>124</v>
       </c>
       <c r="D26" t="s">
         <v>75</v>
       </c>
       <c r="E26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F26" t="s">
         <v>75</v>
       </c>
       <c r="G26" t="s">
+        <v>124</v>
+      </c>
+      <c r="H26" t="s">
         <v>125</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>126</v>
-      </c>
-      <c r="I26" t="s">
-        <v>127</v>
       </c>
       <c r="J26">
         <v>5</v>
@@ -2080,36 +2081,36 @@
         <v>22</v>
       </c>
       <c r="N26" t="s">
-        <v>123</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" t="s">
         <v>128</v>
-      </c>
-      <c r="B27" t="s">
-        <v>129</v>
       </c>
       <c r="C27" t="s">
         <v>50</v>
       </c>
       <c r="D27" t="s">
+        <v>129</v>
+      </c>
+      <c r="E27" t="s">
         <v>130</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
+        <v>129</v>
+      </c>
+      <c r="G27" t="s">
+        <v>130</v>
+      </c>
+      <c r="H27" t="s">
+        <v>129</v>
+      </c>
+      <c r="I27" t="s">
         <v>131</v>
-      </c>
-      <c r="F27" t="s">
-        <v>130</v>
-      </c>
-      <c r="G27" t="s">
-        <v>131</v>
-      </c>
-      <c r="H27" t="s">
-        <v>130</v>
-      </c>
-      <c r="I27" t="s">
-        <v>132</v>
       </c>
       <c r="J27">
         <v>2</v>
@@ -2129,10 +2130,10 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C28" t="s">
         <v>50</v>
@@ -2141,19 +2142,19 @@
         <v>75</v>
       </c>
       <c r="E28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F28" t="s">
         <v>75</v>
       </c>
       <c r="G28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H28" t="s">
         <v>134</v>
       </c>
-      <c r="H28" t="s">
-        <v>135</v>
-      </c>
       <c r="I28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J28">
         <v>2</v>
@@ -2173,31 +2174,31 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>135</v>
+      </c>
+      <c r="B29" t="s">
         <v>136</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>137</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>138</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>139</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
+        <v>138</v>
+      </c>
+      <c r="G29" t="s">
+        <v>139</v>
+      </c>
+      <c r="H29" t="s">
         <v>140</v>
       </c>
-      <c r="F29" t="s">
+      <c r="I29" t="s">
         <v>139</v>
-      </c>
-      <c r="G29" t="s">
-        <v>140</v>
-      </c>
-      <c r="H29" t="s">
-        <v>141</v>
-      </c>
-      <c r="I29" t="s">
-        <v>140</v>
       </c>
       <c r="J29">
         <v>2</v>
@@ -2217,31 +2218,31 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>141</v>
+      </c>
+      <c r="B30" t="s">
         <v>142</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30" t="s">
+        <v>138</v>
+      </c>
+      <c r="E30" t="s">
         <v>143</v>
       </c>
-      <c r="C30" t="s">
+      <c r="F30" t="s">
         <v>138</v>
       </c>
-      <c r="D30" t="s">
-        <v>139</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="G30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H30" t="s">
         <v>144</v>
       </c>
-      <c r="F30" t="s">
-        <v>139</v>
-      </c>
-      <c r="G30" t="s">
-        <v>144</v>
-      </c>
-      <c r="H30" t="s">
-        <v>145</v>
-      </c>
       <c r="I30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -2256,36 +2257,36 @@
         <v>22</v>
       </c>
       <c r="N30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>146</v>
+      </c>
+      <c r="B31" t="s">
         <v>147</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>148</v>
-      </c>
-      <c r="C31" t="s">
-        <v>149</v>
       </c>
       <c r="D31" t="s">
         <v>75</v>
       </c>
       <c r="E31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F31" t="s">
         <v>75</v>
       </c>
       <c r="G31" t="s">
+        <v>149</v>
+      </c>
+      <c r="H31" t="s">
         <v>150</v>
       </c>
-      <c r="H31" t="s">
-        <v>151</v>
-      </c>
       <c r="I31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J31">
         <v>2</v>
@@ -2300,12 +2301,12 @@
         <v>22</v>
       </c>
       <c r="N31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B32" t="s">
         <v>49</v>
@@ -2314,22 +2315,22 @@
         <v>50</v>
       </c>
       <c r="D32" t="s">
+        <v>153</v>
+      </c>
+      <c r="E32" t="s">
         <v>154</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
+        <v>153</v>
+      </c>
+      <c r="G32" t="s">
+        <v>154</v>
+      </c>
+      <c r="H32" t="s">
+        <v>153</v>
+      </c>
+      <c r="I32" t="s">
         <v>155</v>
-      </c>
-      <c r="F32" t="s">
-        <v>154</v>
-      </c>
-      <c r="G32" t="s">
-        <v>155</v>
-      </c>
-      <c r="H32" t="s">
-        <v>154</v>
-      </c>
-      <c r="I32" t="s">
-        <v>156</v>
       </c>
       <c r="J32">
         <v>2</v>
@@ -2349,31 +2350,31 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>156</v>
+      </c>
+      <c r="B33" t="s">
         <v>157</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>158</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>159</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>160</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
+        <v>159</v>
+      </c>
+      <c r="G33" t="s">
+        <v>160</v>
+      </c>
+      <c r="H33" t="s">
         <v>161</v>
       </c>
-      <c r="F33" t="s">
-        <v>160</v>
-      </c>
-      <c r="G33" t="s">
-        <v>161</v>
-      </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>162</v>
-      </c>
-      <c r="I33" t="s">
-        <v>163</v>
       </c>
       <c r="J33">
         <v>7</v>
@@ -2388,12 +2389,12 @@
         <v>22</v>
       </c>
       <c r="N33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B34" t="s">
         <v>49</v>
@@ -2405,19 +2406,19 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F34" t="s">
         <v>33</v>
       </c>
       <c r="G34" t="s">
+        <v>164</v>
+      </c>
+      <c r="H34" t="s">
         <v>165</v>
       </c>
-      <c r="H34" t="s">
-        <v>166</v>
-      </c>
       <c r="I34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J34">
         <v>2</v>
@@ -2437,31 +2438,31 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>166</v>
+      </c>
+      <c r="B35" t="s">
         <v>167</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>168</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
+        <v>159</v>
+      </c>
+      <c r="E35" t="s">
         <v>169</v>
       </c>
-      <c r="D35" t="s">
-        <v>160</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
+        <v>159</v>
+      </c>
+      <c r="G35" t="s">
+        <v>169</v>
+      </c>
+      <c r="H35" t="s">
         <v>170</v>
       </c>
-      <c r="F35" t="s">
-        <v>160</v>
-      </c>
-      <c r="G35" t="s">
-        <v>170</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>171</v>
-      </c>
-      <c r="I35" t="s">
-        <v>172</v>
       </c>
       <c r="J35">
         <v>14</v>
@@ -2476,36 +2477,36 @@
         <v>22</v>
       </c>
       <c r="N35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>172</v>
+      </c>
+      <c r="B36" t="s">
         <v>173</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>174</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>175</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>176</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>177</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
+        <v>176</v>
+      </c>
+      <c r="H36" t="s">
         <v>178</v>
       </c>
-      <c r="G36" t="s">
-        <v>177</v>
-      </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>179</v>
-      </c>
-      <c r="I36" t="s">
-        <v>180</v>
       </c>
       <c r="J36">
         <v>11</v>
@@ -2520,12 +2521,12 @@
         <v>22</v>
       </c>
       <c r="N36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B37" t="s">
         <v>49</v>
@@ -2537,19 +2538,19 @@
         <v>111</v>
       </c>
       <c r="E37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F37" t="s">
         <v>111</v>
       </c>
       <c r="G37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H37" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J37">
         <v>2</v>
@@ -2569,31 +2570,31 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>183</v>
+      </c>
+      <c r="B38" t="s">
         <v>184</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>185</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>186</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
+        <v>154</v>
+      </c>
+      <c r="F38" t="s">
+        <v>186</v>
+      </c>
+      <c r="G38" t="s">
+        <v>154</v>
+      </c>
+      <c r="H38" t="s">
         <v>187</v>
       </c>
-      <c r="E38" t="s">
-        <v>155</v>
-      </c>
-      <c r="F38" t="s">
-        <v>187</v>
-      </c>
-      <c r="G38" t="s">
-        <v>155</v>
-      </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>188</v>
-      </c>
-      <c r="I38" t="s">
-        <v>189</v>
       </c>
       <c r="J38">
         <v>4</v>
@@ -2608,7 +2609,7 @@
         <v>22</v>
       </c>
       <c r="N38" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
